--- a/03 - FaseDesarrollo/03 - Trimestre/Cuadro de Proveedores/CuadroProveedores-CodeProject.xlsx
+++ b/03 - FaseDesarrollo/03 - Trimestre/Cuadro de Proveedores/CuadroProveedores-CodeProject.xlsx
@@ -2,24 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-Tecnólogo\05-Trimestre\David\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEBASTIAN V\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedores" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhZRVfF8/01bLPaMSXxbheI0Hau9w=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="284">
   <si>
     <t>Selección de Proveedores.</t>
   </si>
@@ -51,7 +56,7 @@
     <t>Informe</t>
   </si>
   <si>
-    <t>IDE</t>
+    <t>Editor de texto</t>
   </si>
   <si>
     <t>Atom</t>
@@ -63,6 +68,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es un IDE </t>
@@ -79,6 +85,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. Además de esto, Atom permite crear e </t>
@@ -95,6 +102,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. El </t>
@@ -111,6 +119,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> de Atom es muy completo y permite crear código de forma más rápida.</t>
@@ -123,6 +132,83 @@
     <t>La mayor desventaja de Atom es su rendimiento. Muchas veces funciona muy lento y resulta molesto el tiempo de reacción del IDE.</t>
   </si>
   <si>
+    <t>Se concluyó que la herramienta oportuna para este proyecto, en el área de Editores de texto, es Visual Studio Code por su popularidad, estabilidad, y flexibilidad a la hora de hacer código en cualquier lenguaje de programación. Además de contra con un soporte inmenso, Visual Studio Code es el editor de texto de preferencia por los profesionales.</t>
+  </si>
+  <si>
+    <t>Sublime Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Skinner
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Es un editor de texto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>flexible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> y con soporte para un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>amplio repertorio de lenguajes de programación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">. Dentro de sus más notables caracterísitas, Sublime Text cuenta con un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>entorno oscuro que facilita la concentración en el código</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>. Sublime Text fue desarrollado con el propósito de resaltar el código para ofrecerle al usuario una completa inmersión a la hora desarrollar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Resalta todo tipo de lenguaje con colores para visualmente detectar fallos a simple vista. Además, es muy liviano, fácil de instalar y tiene una versión portable.</t>
+  </si>
+  <si>
+    <t>Al ser un editor con filosofía de editor clásico, Sublime Text es un poco complejo de aprender. Además, no cuenta con un amplio soporte de plugins por lo que es más difícil trabajar en él.</t>
+  </si>
+  <si>
     <t>Visual Studio Code</t>
   </si>
   <si>
@@ -132,6 +218,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Como principales características, destaca porque es </t>
@@ -149,6 +236,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -156,6 +244,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Además de esto, cuenta con un terminal integrado y con una variedad inmensa de extensiones útiles para el desarrollo de software. </t>
@@ -165,6 +254,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Cuenta con </t>
@@ -181,6 +271,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">, como por ejemplo HTML, CSS y Javascript. También, Visual Studio Code </t>
@@ -197,6 +288,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">, por lo que existen miles de plugins que podremos utilizar para optimizar el desarrollo de nuestro código. Es oportuno destacar que </t>
@@ -213,6 +305,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> y que el soporte que tiene es inmenso.</t>
@@ -234,6 +327,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">MySQL Workbench es un sistema de base de datos relacional, lo que quiere decir que archiva datos en tablas separadas en lugar de guardar todos los datos en un gran archivo, lo que le permite tener </t>
@@ -252,6 +346,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">MySQL Workbench es un SGBD de </t>
@@ -268,6 +363,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> que también destaca por su </t>
@@ -284,6 +380,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t>. Además, tiene compatibilidad con muchos sistemas operativos y un soporte comunitario que beneficia mucho a sus usuarios.</t>
@@ -293,6 +390,9 @@
     <t>Muchas de las utilidades de MySQL Workbench están sin documentar. Esto puede imposibilitar a desarrolladores nuevos la comprensión total del SGBD. Además, no es tan intuitivo como otros SGBD.</t>
   </si>
   <si>
+    <t>Seleccionamos MySQL Workbench porque es uno de los SGBD más populares del mercado. Además de ser muy completo, MySQL Workbench es muy estable y muy sencillo e intituivo de utilizar.</t>
+  </si>
+  <si>
     <t>SQLite</t>
   </si>
   <si>
@@ -302,6 +402,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es un SGBD </t>
@@ -318,6 +419,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t>, por lo cual no necesita de instalación. Además, SQLite cuenta con una licencia de dominio público que facilita su utilización.</t>
@@ -327,6 +429,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es estable, multiplataforma y compatible con versiones anteriores.
@@ -358,6 +461,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es un sistema de gestión de bases de datos relacional orientado a objetos y de </t>
@@ -374,6 +478,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t>, publicado bajo la licencia BSD o la MIT.</t>
@@ -383,6 +488,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Su instalación y uso es gratis. Al igual de la mayoría de los SGBD, </t>
@@ -399,6 +505,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es un SGBD con un alto sistema de </t>
@@ -429,6 +536,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es un sistema para el Control de Versiones que </t>
@@ -445,6 +553,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. Está escrito bajo una </t>
@@ -461,6 +570,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t>, y con Git podemos mantener un histórico de versiones de nuestros proyectos.</t>
@@ -470,6 +580,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Algunas de las ventajas de Git radican en que cuenta con un </t>
@@ -486,6 +597,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> muy fuerte. Cuenta, además, con una </t>
@@ -502,6 +614,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. </t>
@@ -511,9 +624,245 @@
     <t>Es muy complejo. Además de que la curva de aprendizaje es empinada, los comandos y algunos conceptos pueden resultar complejos para principiantes.</t>
   </si>
   <si>
+    <t>Decidimos utilizar Git, con ayuda de GitHub, para hacer el respectivo y necesario control de versiones. Git, al ser una solución robusta y altamente usada, nos pareció el software más oportuno.</t>
+  </si>
+  <si>
+    <t>Apache Subversion</t>
+  </si>
+  <si>
+    <t>CollabNet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Subversion es un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>sistema de control de versiones centralizado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">, donde existe un repositorio que dispone de todo el historial de las versiones del software. Del mismo modo, podemos destacar que además de los cambios en el contenido de los documentos, se </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>mantiene la historia de todas las operaciones de cada elemento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, incluyendo la copia, cambio de directorio o de nombre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">La herramienta permite acceso a los archivos de un proyecto, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>observar el trabajo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, realizar cambios y guardar estos cambios en su repositorio, donde se almacenan todos los archivos involucrados. Al finalizar una acción de guardar cambios, se considera que se ha creado una nueva revisión.</t>
+    </r>
+  </si>
+  <si>
+    <t>El manejo de cambio de nombres de archivos no es completo. Lo maneja como la suma de una operación de copia y una de borrado. No resuelve el problema de aplicar repetidamente parches entre ramas, no facilita el llevar la cuenta de qué cambios se han trasladado. Esto se resuelve siendo cuidadoso con los mensajes de commit. Esta carencia será corregida en la próxima versión.</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>CVS Team</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Es un modelo de repositorio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>cliente-servidor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> donde varios desarrolladores pueden trabajar en el mismo proyecto en paralelo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Una de las ventajas que ofrece CVS es que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>no requiere guardar cada versión completa del archivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, esto es, se mantiene un depósito (" repository ") donde son administradas las distintas versiones maestras de cada archivo.</t>
+    </r>
+  </si>
+  <si>
+    <t>No soporta refactorización de sistemas de forma automática o versionadas.
+Limitada para UTF-8 Unicode o archivos con contenido diferecnte ACII.</t>
+  </si>
+  <si>
     <t>Navegador Web</t>
   </si>
   <si>
+    <t>Microsoft Edge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Microsoft Edge es un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>navegador web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> desarrollado por Microsoft, basado en Chromium.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Una de las ventajas más destacadas por los usuarios de Microsoft Edge es que es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">altamente personalizable, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">además de ser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>rápido y potente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">, también cuenta con un apartado para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>tomar apuntes.</t>
+    </r>
+  </si>
+  <si>
+    <t>No es tan seguro como se pensaba. No soporta sincronización de datos con Google y es un navegador relativamente nuevo, por lo cual no es 100% confiable.</t>
+  </si>
+  <si>
+    <t>Google Chrome es nuestro navegador escogido porque tiene miles de plugins y herramientas para desarrolladores. Además, Google Chrome es uno de los navegadores más completos que existen. Es por eso y su robustez que seleccionamos Google Chrome.</t>
+  </si>
+  <si>
     <t>Mozilla Firefox</t>
   </si>
   <si>
@@ -523,6 +872,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Mozilla Firefox es un navegador web </t>
@@ -539,6 +889,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> desarrollado para distintas plataformas. </t>
@@ -548,6 +899,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Apto para equipos de sobremesa, portátiles y dispositivos móviles. Mozilla Firefox es un navegador </t>
@@ -564,6 +916,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> con buena </t>
@@ -580,6 +933,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> y altamente personalizable. Además, permite la </t>
@@ -596,6 +950,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> de datos y contraseñas. Orientado al área de del desarrollo web, Mozilla ofrece muchas herramientas que </t>
@@ -623,6 +978,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Google Chrome es un navegador web de </t>
@@ -639,6 +995,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">​​ desarrollado por Google, aunque derivado de proyectos de código abierto.​​​ </t>
@@ -648,6 +1005,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es muy rápido y </t>
@@ -664,6 +1022,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. Las páginas web cargan más deprisa y se pueden </t>
@@ -680,6 +1039,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">, sin que se agote la memoria del ordenador. También es Robusto y seguro y cuenta con </t>
@@ -697,6 +1057,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -704,6 +1065,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t>24/7.</t>
@@ -722,6 +1084,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Es un lenguaje interpretado, no compilado, usa tipado dinámico, fuertemente tipado. Es </t>
@@ -738,6 +1101,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t>, lo cual es ventajoso para hacer ejecutable su código fuente entre varios sistema operativos.</t>
@@ -756,6 +1120,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. Python es un lenguaje de programación abierto y gratuito. </t>
@@ -772,6 +1137,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">, gracias a lo cual es posible incorporar programas escritos en Python a otros programas escritos en lenguajes diferentes, como C y C++. Además de esto, Python es muy </t>
@@ -788,6 +1154,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> y ofrece muchos frameworks útiles.</t>
@@ -797,7 +1164,253 @@
     <t>No todos los servicios de hosting soportan Python. El factor desventajoso es que la ejecución de sus programas es más lenta. Sus funciones dinámicas pueden causar errores en tiempo de ejecución.</t>
   </si>
   <si>
-    <t>Herramienta de Comunicación</t>
+    <t>Python fue el lenguaje de programación que seleccionamos gracias a su alto desempeño y popularidad. Python, orientado al desarrollo web, nos permite crear aplicaciones haciendo uso de su framework Django, el cual es simple y potente a la vez.</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Java es un lenguaje de programación que permite jugar, cargar fotografías, chatear en línea, realizar visitas virtuales y utilizar servicios como, por ejemplo, cursos en línea, servicios bancarios en línea y mapas interactivos. Si no dispone de Java, muchas aplicaciones y sitios web no funcionarán.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Es un lenguaje </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>multiplataforma, orientado a objetos, robusto, open source, versatil y muy completo.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> Java permite desarrolladr desde juegos como Minecraft, hasta aplicaciones bancarias.</t>
+    </r>
+  </si>
+  <si>
+    <t>Los programas de rendimiento en Java tardan mucho más en ejecutarse. Dado que los programas Java se ejecutan sobre la máquina virtual Java, consume más memoria.</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">C# es un lenguaje de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>programación multiparadigma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> desarrollado y estandarizado por la empresa Microsoft como parte de su plataforma .NET, que después fue aprobado como un estándar por la ECMA e ISO. C# es uno de los lenguajes de programación diseñados para la infraestructura de lenguaje común.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">C# es un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>lenguaje seguro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">, lo que implica varios elementos. Aunque muchos argumenten que C++ es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>orientado a objetos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>, C# lo supera a otro nivel. Cualquier tipo de dato simple se puede tratar como objeto, lo que significa que un “int” tiene métodos asociados a ello.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es un lenguaje de programación con cierto nivel de complejidad, lo que hace necesario el conocimiento previo en informática para poder ejecutarlo.
+Se requiere de versiones actualizadas del programa Visual Studio . NET, así como equipos de gran potencia para poder ejecutarlos.</t>
+  </si>
+  <si>
+    <t>Herramienta de Documentación</t>
+  </si>
+  <si>
+    <t>GitBook</t>
+  </si>
+  <si>
+    <t>Aaron O'Mullan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">GitBook es una excelente herramienta para </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>crear documentación de proyectos y libros técnicos usando Markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> y Git/Github. Permite incluir ejemplos y ejercicios interactivos (de momento, soporta solamente JavaScript) para posteriormente publicarlos de forma online via Github o cualquier otro hosting web.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Gitbook es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>rápido, dinámico, sencillo de entender y gratuito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>. Al ser una aplicación web, Gitbook pasa a ser multiplataforma por lo que cualquier usuario puede acceder a él.</t>
+    </r>
+  </si>
+  <si>
+    <t>Está condicionado, muchas veces, a depender de un grupo de trabajo para que la documentación pueda ser pública.</t>
+  </si>
+  <si>
+    <t>A pesar de que todas las tres herramientas son útiles y poderosas, decidimos elegir Gitbook por su facilidad y porque el trabajo colaborativo se facilita con su sistema de control de versiones integrado con Git.</t>
+  </si>
+  <si>
+    <t>Evernote</t>
+  </si>
+  <si>
+    <t>Stepan Pachikov</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Evernote es una aplicación informática cuyo objetivo es la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>organización</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve"> de información personal mediante el archivo de notas. Existen versiones instalables para diversos sistemas operativos y una versión web. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Es una herramienta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF3D4DB7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>online, y multiplataforma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>. Además de ser fácil de manejar, Evernote facilita la planificación ya que existen platillas predeterminadas.</t>
+    </r>
+  </si>
+  <si>
+    <t>La versión gratuita es limitada. Además de esto, muchas veces la sincronización entre dispositivos falla.</t>
   </si>
   <si>
     <t>Notion</t>
@@ -809,6 +1422,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Notion es una aplicación que proporciona componentes como </t>
@@ -825,6 +1439,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">tableros kanban, wikis, </t>
@@ -841,6 +1456,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. Además, Notion es un </t>
@@ -859,6 +1475,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">Se mejora la </t>
@@ -875,6 +1492,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve"> y por tanto, se consigue </t>
@@ -891,6 +1509,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">. La delegación de tareas se convierte en un proceso muy fácil.
@@ -908,6 +1527,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Inter"/>
       </rPr>
       <t xml:space="preserve">, la posibilidad de tenerlo todo en un único sitio facilita dicha función. </t>
@@ -929,7 +1549,7 @@
     <t xml:space="preserve">Teclado </t>
   </si>
   <si>
-    <t>Genius</t>
+    <t>Genius GX</t>
   </si>
   <si>
     <t>Teclado de membrana marca Genius.</t>
@@ -941,192 +1561,318 @@
     <t xml:space="preserve">No es mecánico. </t>
   </si>
   <si>
+    <t xml:space="preserve">Genius fue nuestro teclado seleccionado por la relación costo/beneficio. </t>
+  </si>
+  <si>
+    <t>Redragon Kumara K552</t>
+  </si>
+  <si>
+    <t>Teclado mecánico retroiluminado y pequeño.</t>
+  </si>
+  <si>
+    <t>Retroiluminación en el centro de las teclas. Software propio para configuración.</t>
+  </si>
+  <si>
+    <t>Demasiado costoso.</t>
+  </si>
+  <si>
     <t>Mouse</t>
   </si>
   <si>
+    <t>Genius DX-120</t>
+  </si>
+  <si>
     <t>Mouse ergonómico marca Genius 7.5Cm. Size S.</t>
   </si>
   <si>
     <t>Buen soporte y buena estructura. Mejora la posición de la mano sobre la mesa.</t>
   </si>
   <si>
+    <t>Muy liviano.</t>
+  </si>
+  <si>
+    <t>El mouse Genius una vez más es el elegido por su ergonomía y su precio.</t>
+  </si>
+  <si>
+    <t>Logitech G203</t>
+  </si>
+  <si>
+    <t>6 botones funcionales que permite mejor experiencia de uso. 8000dpi.</t>
+  </si>
+  <si>
+    <t>Gran soporte con distintos sistemas operativos.</t>
+  </si>
+  <si>
+    <t>Coste alto y cable corto.</t>
+  </si>
+  <si>
+    <t>Diadema</t>
+  </si>
+  <si>
+    <t>Logitech H151</t>
+  </si>
+  <si>
+    <t>Audífonos ligeros con micrófono marca Logitech. Baja recepción de ruido. Reducción de estática.</t>
+  </si>
+  <si>
+    <t>Excelente micrófono. La reducción de ruido es una ventaja muy grande de esta diadema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajo volúmen de audio. </t>
+  </si>
+  <si>
+    <t>La diadema Logitech, a pesar de ser un poco más costos, ofrece mejores beneficios a la hora de utilizar su micrófono.</t>
+  </si>
+  <si>
+    <t>Genius HS200</t>
+  </si>
+  <si>
+    <t>Diadema ligera marca Genius con soporte en varios sistemas operativos y bajo costo.</t>
+  </si>
+  <si>
+    <t>Demasiado económica y con micrófono ajustable.</t>
+  </si>
+  <si>
+    <t>No posee reducción de ruido en su micrófono ni tiene un software dedicado.</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Janus 22</t>
+  </si>
+  <si>
+    <t>Monitor Janus con conexión HDMI y altavoz integrado.</t>
+  </si>
+  <si>
+    <t>Altavoz integrado con buen sonido y formato HDMI útil.</t>
+  </si>
+  <si>
+    <t>Interferencia y dificultad para encontrar drivers.</t>
+  </si>
+  <si>
+    <t>El monitor Janus es mejor en cuestión de relación calidad/beneficio ya que tiene una excelente resolución y un conector HDMI excelente.</t>
+  </si>
+  <si>
+    <t>Samsung LF22T350FH</t>
+  </si>
+  <si>
+    <t>Monito de 22 pulgadas marca Samsung con panel IPS.</t>
+  </si>
+  <si>
+    <t>Conexión HDMI, resolución de 1920x1080.</t>
+  </si>
+  <si>
+    <t>Precio elevado y soporte débil.</t>
+  </si>
+  <si>
+    <t>Disco Duro</t>
+  </si>
+  <si>
+    <t>Toshiba Canvio Basic</t>
+  </si>
+  <si>
+    <t>Disco Duro marca Toshiba de 1TB de Almacenamiento. Oportuno para el almacenamiento de mucha información</t>
+  </si>
+  <si>
+    <t>Demasiado espacio de almacenamiento. Útil para el almacenamiento de proyectos.</t>
+  </si>
+  <si>
+    <t>Es un disco duro y no sólido. El procesamiento es más lento.</t>
+  </si>
+  <si>
+    <t>A pesar de que un disco sólido brinde mejor rendimiento, el disco Toshiba ofrece más almacenamiento.</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>Disco sólido interno de 1TB marca Crucial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofrece un espacio de almacenamiento justo y es rápido. </t>
+  </si>
+  <si>
+    <t>Precio elevado.</t>
+  </si>
+  <si>
+    <t>Memoria RAM</t>
+  </si>
+  <si>
+    <t>Trident Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoria RAM de 8GB DDR4. Útil para el procesamiento de la información. </t>
+  </si>
+  <si>
+    <t>Buena gestión de aplicaciones. Demasiado buena para ser de 8GB.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poca cantidad de memoria. </t>
+  </si>
+  <si>
+    <t>Esta memoria RAM agiliza procesos y permite que el computador sea más eficaz.</t>
+  </si>
+  <si>
+    <t>Crucial CT8</t>
+  </si>
+  <si>
+    <t>Memoria RAM de 8GB marca Crucial. Velocidad alta y 2666 MHz.</t>
+  </si>
+  <si>
+    <t>Precio cómodo, empresa reconocida y alto desempeño.</t>
+  </si>
+  <si>
+    <t>Apta para Notebooks y algo antigua.</t>
+  </si>
+  <si>
+    <t>Tarjeta de Video</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDIA Gt710 ideal para el desarrollo de animaciones. </t>
+  </si>
+  <si>
+    <t>Su relación precio/calidad es muy buena. Ofrece muy buenos gráficos y tiene un buen panel de administración.</t>
+  </si>
+  <si>
+    <t>Baja calidad y poco soporte en drivers.</t>
+  </si>
+  <si>
+    <t>La tarjeta gráfica Nvidia es accesible y cuenta con un gran rendimiento para un pc gama baja.</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RX 590 de 8GB ideal para desarrollo de software. </t>
+  </si>
+  <si>
+    <t>Buenas características. Demasiado veloz y con un amplio soporte.</t>
+  </si>
+  <si>
+    <t>Demasiado costosa. Exige equipos con una motherboard actual.</t>
+  </si>
+  <si>
+    <t>Procesador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesador Ryzen 3400G ideal para el desarrollo de software y desarrollo android. </t>
+  </si>
+  <si>
+    <t>Amplio soporte. Ideal para videojuegos. Ofrece una gran estabilidad.</t>
+  </si>
+  <si>
+    <t>Costoso y exigente en cuanto a arquitectura física.</t>
+  </si>
+  <si>
+    <t>El procesador en esta ocasión consideramos oportuno que fuera un Intel i5 ya que sus velocidades por núcleo son muy buenas y es muy estable.</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesador i5 7400 ideal para el desarrollo y testeo de aplicaciones web. </t>
+  </si>
+  <si>
+    <t>Muy rápido. Cada núcleo funciona a 3.00 GHZ y esto facilita el procesamiento multitarea.</t>
+  </si>
+  <si>
+    <t>A pesar de ser un buen procesador, es de una generación antigua.</t>
+  </si>
+  <si>
+    <t>Proveedores de Host</t>
+  </si>
+  <si>
+    <t>Plataforma (PaaS) / Característica</t>
+  </si>
+  <si>
+    <t>Propietario</t>
+  </si>
+  <si>
+    <t>Tipo de Servicio (IaaS, PaaS, SaaS)</t>
+  </si>
+  <si>
+    <t>Espacio de almacenamiento</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Lenguajes de programación soportados</t>
+  </si>
+  <si>
+    <t>Bases de datos soportados</t>
+  </si>
+  <si>
+    <t>Servicios de contenedores soportados</t>
+  </si>
+  <si>
+    <t>Región geográfica de operación</t>
+  </si>
+  <si>
+    <t>Autoescalable</t>
+  </si>
+  <si>
+    <t>Garantía</t>
+  </si>
+  <si>
+    <t>Planes y Precio</t>
+  </si>
+  <si>
+    <t>Servicio de soporte técnico</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>PaaS</t>
+  </si>
+  <si>
+    <t>Depende del plan de horas que seleccionemos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 GB </t>
+  </si>
+  <si>
+    <t>Java, Javascript, .NET, PHP, Python, Ruby, Go, C++.</t>
+  </si>
+  <si>
+    <t>Amazon RDS, PostgreSQL, Aurora.</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Kubernetes Service, Red Hat Openshift, AWS App Runner.</t>
+  </si>
+  <si>
+    <t>Australia, Canada, India, Indonesia, Israel, New Zealand, Spain, Switzerland, and United Arab Emirates</t>
+  </si>
+  <si>
+    <t>AWS Auto Scaling le permite crear planes de escalado que automatizan la manera en la que diferentes recursos responden ante los cambios que se producen en la demanda.</t>
+  </si>
+  <si>
+    <t>1 año.</t>
+  </si>
+  <si>
+    <t>AWP Free tier ofrece 750 horas gratuitas.</t>
+  </si>
+  <si>
+    <t>No está disponible en el plan de soporte básico.</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>Salesforce.com</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Diadema</t>
-  </si>
-  <si>
-    <t>Logitech</t>
-  </si>
-  <si>
-    <t>Audífonos ligeros con micrófono marca Logitech. Baja recepción de ruido. Reducción de estática.</t>
-  </si>
-  <si>
-    <t>Excelente micrófono. La reducción de ruido es una ventaja muy grande de esta diadema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bajo volúmen de audio. </t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Janus</t>
-  </si>
-  <si>
-    <t>Monitor Janus con conexión HDMI y altavoz integrado.</t>
-  </si>
-  <si>
-    <t>Altavoz integrado con buen sonido y formato HDMI útil.</t>
-  </si>
-  <si>
-    <t>Interferencia y dificultad para encontrar drivers.</t>
-  </si>
-  <si>
-    <t>Disco Duro</t>
-  </si>
-  <si>
-    <t>Toshiba</t>
-  </si>
-  <si>
-    <t>Disco Duro marca Toshiba de 1TB de Almacenamiento. Oportuno para el almacenamiento de mucha información</t>
-  </si>
-  <si>
-    <t>Demasiado espacio de almacenamiento. Útil para el almacenamiento de proyectos.</t>
-  </si>
-  <si>
-    <t>Es un disco duro y no sólido. El procesamiento es más lento.</t>
-  </si>
-  <si>
-    <t>Memoria RAM</t>
-  </si>
-  <si>
-    <t>Trident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memoria RAM de 8GB DDR4. Útil para el procesamiento de la información. </t>
-  </si>
-  <si>
-    <t>Buena gestión de aplicaciones. Demasiado buena para ser de 8GB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poca cantidad de memoria. </t>
-  </si>
-  <si>
-    <t>Tarjeta de Video</t>
-  </si>
-  <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVIDIA Gt420 ideal para el desarrollo de animaciones. </t>
-  </si>
-  <si>
-    <t>Su relación precio/calidad es muy buena. Ofrece muy buenos gráficos y tiene un buen panel de administración.</t>
-  </si>
-  <si>
-    <t>Procesador</t>
-  </si>
-  <si>
-    <t>Intel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procesador i5 ideal para el desarrollo y testeo de aplicaciones web. </t>
-  </si>
-  <si>
-    <t>Muy rápido. Cada núcleo funciona a 3.00 GHZ y esto facilita el procesamiento multitarea.</t>
-  </si>
-  <si>
-    <t>A pesar de ser un buen procesador, es de una generación antigua.</t>
-  </si>
-  <si>
-    <t>Proveedores de Host</t>
-  </si>
-  <si>
-    <t>Plataforma (PaaS) / Característica</t>
-  </si>
-  <si>
-    <t>Propietario</t>
-  </si>
-  <si>
-    <t>Tipo de Servicio (IaaS, PaaS, SaaS)</t>
-  </si>
-  <si>
-    <t>Espacio de almacenamiento</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>Lenguajes de programación soportados</t>
-  </si>
-  <si>
-    <t>Bases de datos soportados</t>
-  </si>
-  <si>
-    <t>Servicios de contenedores soportados</t>
-  </si>
-  <si>
-    <t>Región geográfica de operación</t>
-  </si>
-  <si>
-    <t>Autoescalable</t>
-  </si>
-  <si>
-    <t>Garantía</t>
-  </si>
-  <si>
-    <t>Planes y Precio</t>
-  </si>
-  <si>
-    <t>Servicio de soporte técnico</t>
-  </si>
-  <si>
-    <t>Amazon EC2</t>
-  </si>
-  <si>
-    <t>Amazon Web Services</t>
-  </si>
-  <si>
-    <t>PaaS</t>
-  </si>
-  <si>
-    <t>Depende del plan de horas que seleccionemos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 GB </t>
-  </si>
-  <si>
-    <t>Java, Javascript, .NET, PHP, Python, Ruby, Go, C++.</t>
-  </si>
-  <si>
-    <t>Amazon RDS, PostgreSQL, Aurora.</t>
-  </si>
-  <si>
-    <t>Amazon Elastic Kubernetes Service, Red Hat Openshift, AWS App Runner.</t>
-  </si>
-  <si>
-    <t>Australia, Canada, India, Indonesia, Israel, New Zealand, Spain, Switzerland, and United Arab Emirates</t>
-  </si>
-  <si>
-    <t>AWS Auto Scaling le permite crear planes de escalado que automatizan la manera en la que diferentes recursos responden ante los cambios que se producen en la demanda.</t>
-  </si>
-  <si>
-    <t>1 año.</t>
-  </si>
-  <si>
-    <t>AWP Free tier ofrece 750 horas gratuitas.</t>
-  </si>
-  <si>
-    <t>No está disponible en el plan de soporte básico.</t>
-  </si>
-  <si>
-    <t>Heroku</t>
-  </si>
-  <si>
-    <t>Salesforce.com</t>
-  </si>
-  <si>
     <t>14 GB</t>
   </si>
   <si>
@@ -1293,6 +2039,24 @@
   </si>
   <si>
     <t>Dominio .COM = $7.98 por año.</t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>Dominio .CO = $11.99 por año.</t>
+  </si>
+  <si>
+    <t>DonDominio</t>
+  </si>
+  <si>
+    <t>Dominio .tech = $39.95 por año.</t>
+  </si>
+  <si>
+    <t>HostGator</t>
+  </si>
+  <si>
+    <t>Dominio .COM = $3.99 por año.</t>
   </si>
   <si>
     <t>Hostinger</t>
@@ -1305,7 +2069,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1313,12 +2077,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FFEFEFF1"/>
       <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1332,6 +2101,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Inter"/>
     </font>
     <font>
@@ -1368,10 +2138,11 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Inter"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,12 +2157,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEFEFF1"/>
         <bgColor rgb="FFEFEFF1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1400,6 +2177,90 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3D4DB7"/>
       </left>
@@ -1483,7 +2344,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF3D4DB7"/>
+      </left>
       <right style="thin">
         <color rgb="FF3D4DB7"/>
       </right>
@@ -1510,13 +2373,35 @@
       <left style="thin">
         <color rgb="FF3D4DB7"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3D4DB7"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF3D4DB7"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF3D4DB7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3D4DB7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3D4DB7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3D4DB7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3D4DB7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1541,13 +2426,51 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3D4DB7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3D4DB7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3D4DB7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3D4DB7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3D4DB7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3D4DB7"/>
+      </left>
       <right style="thin">
         <color rgb="FF3D4DB7"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF3D4DB7"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1608,19 +2531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFEA9999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEA9999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEA9999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFEA9999"/>
       </left>
@@ -1633,11 +2543,24 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FFEA9999"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFEA9999"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color rgb="FFEA9999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEA9999"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1655,65 +2578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFF4CCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFF4CCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFF4CCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFF4CCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFF4CCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFF4CCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF4CCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFF4CCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF4CCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFF4CCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFF4CCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF4CCCC"/>
+      <bottom style="thin">
+        <color rgb="FFEA9999"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,6 +2597,113 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4CCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA9999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4CCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFEA9999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4CCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA9999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4CCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEA9999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4CCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEA9999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4CCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFF4CCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4CCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA9999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4CCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4CCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4CCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEA9999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4CCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFEA9999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4CCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFF4CCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB4A7D6"/>
       </left>
@@ -1899,247 +2872,334 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB6D7A8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB6D7A8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2158,20 +3218,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -2195,79 +3255,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2410,11 +3410,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -2423,14 +3418,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="56.140625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -2465,58 +3461,58 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2533,846 +3529,2165 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:9" ht="12.75">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="114.75">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="191.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="6" t="s">
+      <c r="H13" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="216.75">
+      <c r="B14" s="73"/>
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="127.5">
-      <c r="B15" s="70" t="s">
+      <c r="G14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:9" ht="178.5">
+      <c r="B15" s="74"/>
+      <c r="C15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="114.75">
-      <c r="B16" s="71"/>
-      <c r="C16" s="13" t="s">
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:9" ht="127.5">
+      <c r="B16" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="2:8" ht="102">
-      <c r="B17" s="69"/>
-      <c r="C17" s="13" t="s">
+      <c r="G16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="H16" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="15" t="s">
+    </row>
+    <row r="17" spans="2:8" ht="114.75">
+      <c r="B17" s="73"/>
+      <c r="C17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="D17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" ht="114.75">
-      <c r="B18" s="13" t="s">
+      <c r="F17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="G17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="2:8" ht="102">
+      <c r="B18" s="74"/>
+      <c r="C18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" ht="178.5">
-      <c r="B19" s="70" t="s">
+      <c r="G18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="2:8" ht="114.75">
+      <c r="B19" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="2:8" ht="127.5">
-      <c r="B20" s="69"/>
-      <c r="C20" s="10" t="s">
+      <c r="G19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="H19" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="12" t="s">
+    </row>
+    <row r="20" spans="2:8" ht="229.5">
+      <c r="B20" s="94"/>
+      <c r="C20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="D20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="E20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="2:8" ht="153">
-      <c r="B21" s="72" t="s">
+      <c r="F20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="G20" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B21" s="95"/>
+      <c r="C21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="D21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="E21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="2:8" ht="140.25">
-      <c r="B22" s="73" t="s">
+      <c r="F21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="G21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="2:8" ht="102">
+      <c r="B22" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="D22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B25" s="74" t="s">
+      <c r="G22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-    </row>
-    <row r="26" spans="2:8" ht="12.75">
-      <c r="B26" s="77" t="s">
+      <c r="H22" s="72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="178.5">
+      <c r="B23" s="73"/>
+      <c r="C23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="73"/>
+    </row>
+    <row r="24" spans="2:8" ht="127.5">
+      <c r="B24" s="74"/>
+      <c r="C24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="2:8" ht="153">
+      <c r="B25" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="153">
+      <c r="B26" s="73"/>
+      <c r="C26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="2:8" ht="178.5">
+      <c r="B27" s="74"/>
+      <c r="C27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="2:8" ht="165.75">
+      <c r="B28" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="114.75">
+      <c r="B29" s="73"/>
+      <c r="C29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="73"/>
+    </row>
+    <row r="30" spans="2:8" ht="140.25">
+      <c r="B30" s="74"/>
+      <c r="C30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B33" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="114"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="78" t="s">
+      <c r="C34" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="78" t="s">
+      <c r="E34" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F34" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="78" t="s">
+      <c r="G34" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="79" t="s">
+      <c r="H34" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="25.5">
-      <c r="B27" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:8" ht="38.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="19" t="s">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B35" s="109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="38.25">
+      <c r="B36" s="118"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="108"/>
+    </row>
+    <row r="37" spans="2:8" ht="38.25">
+      <c r="B37" s="118"/>
+      <c r="C37" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="38.25">
+      <c r="B38" s="118"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="108"/>
+    </row>
+    <row r="39" spans="2:8" ht="51">
+      <c r="B39" s="118"/>
+      <c r="C39" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="H39" s="101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="51">
+      <c r="B40" s="118"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="102"/>
+    </row>
+    <row r="41" spans="2:8" ht="25.5">
+      <c r="B41" s="118"/>
+      <c r="C41" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="126.75" customHeight="1">
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="111"/>
+    </row>
+    <row r="43" spans="2:8" ht="63.75">
+      <c r="B43" s="118"/>
+      <c r="C43" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="38.25">
+      <c r="B44" s="118"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="104"/>
+    </row>
+    <row r="45" spans="2:8" ht="51">
+      <c r="B45" s="118"/>
+      <c r="C45" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="38.25">
+      <c r="B46" s="118"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="104"/>
+    </row>
+    <row r="47" spans="2:8" ht="51">
+      <c r="B47" s="118"/>
+      <c r="C47" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="103" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="38.25">
+      <c r="B48" s="118"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="H48" s="104"/>
+    </row>
+    <row r="49" spans="2:15" ht="51">
+      <c r="B49" s="118"/>
+      <c r="C49" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H49" s="103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="105" customHeight="1">
+      <c r="B50" s="108"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="104"/>
+    </row>
+    <row r="51" spans="2:15" ht="12.75">
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="49"/>
+    </row>
+    <row r="52" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B52" s="48"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="49"/>
+    </row>
+    <row r="53" spans="2:15" ht="12.75">
+      <c r="B53" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="98"/>
+    </row>
+    <row r="54" spans="2:15" ht="38.25">
+      <c r="B54" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="J54" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="K54" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="L54" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="M54" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="N54" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="O54" s="54"/>
+    </row>
+    <row r="55" spans="2:15" ht="102">
+      <c r="B55" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="K55" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="M55" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="N55" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" ht="89.25">
+      <c r="B56" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="K56" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="L56" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="M56" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="N56" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="51">
+      <c r="B57" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="I57" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="K57" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="L57" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="M57" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="N57" s="57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="51">
+      <c r="B58" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="G58" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="K58" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="L58" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="M58" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="N58" s="57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" ht="63.75">
+      <c r="B59" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="K59" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="L59" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="M59" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="N59" s="57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" ht="127.5">
+      <c r="B60" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:8" ht="51">
-      <c r="B29" s="81"/>
-      <c r="C29" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="2:8" ht="25.5">
-      <c r="B30" s="81"/>
-      <c r="C30" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="2:8" ht="63.75">
-      <c r="B31" s="81"/>
-      <c r="C31" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="2:8" ht="51">
-      <c r="B32" s="81"/>
-      <c r="C32" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="31"/>
-    </row>
-    <row r="33" spans="2:15" ht="51">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="31"/>
-    </row>
-    <row r="34" spans="2:15" ht="51">
-      <c r="B34" s="83"/>
-      <c r="C34" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="31"/>
-    </row>
-    <row r="35" spans="2:15" ht="12.75">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="2:15" ht="12.75">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="2:15" ht="12.75">
-      <c r="B37" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
-    </row>
-    <row r="38" spans="2:15" ht="38.25">
-      <c r="B38" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="N38" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="2:15" ht="102">
-      <c r="B39" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="L39" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="N39" s="38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" ht="89.25">
-      <c r="B40" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="K40" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M40" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="N40" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="51">
-      <c r="B41" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M41" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="N41" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" ht="51">
-      <c r="B42" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="N42" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" ht="63.75">
-      <c r="B43" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="K43" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M43" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="N43" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" ht="127.5">
-      <c r="B44" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="K44" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M44" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="N44" s="38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" ht="127.5">
-      <c r="B45" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="K45" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="L45" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="M45" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="N45" s="44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" ht="12.75">
-      <c r="E46" s="45"/>
-    </row>
-    <row r="47" spans="2:15" ht="12.75">
-      <c r="E47" s="45"/>
-    </row>
-    <row r="48" spans="2:15" ht="12.75">
-      <c r="B48" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="45"/>
-    </row>
-    <row r="49" spans="2:5" ht="12.75">
-      <c r="B49" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="45"/>
-    </row>
-    <row r="50" spans="2:5" ht="25.5">
-      <c r="B50" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="25.5">
-      <c r="B51" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>192</v>
-      </c>
-    </row>
+      <c r="D60" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="J60" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="K60" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="L60" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="M60" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="N60" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="127.5">
+      <c r="B61" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="J61" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="L61" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="M61" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="N61" s="60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="15.75" customHeight="1">
+      <c r="E62" s="61"/>
+    </row>
+    <row r="63" spans="2:15" ht="15.75" customHeight="1">
+      <c r="E63" s="61"/>
+    </row>
+    <row r="64" spans="2:15" ht="15.75" customHeight="1">
+      <c r="B64" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" s="100"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="61"/>
+    </row>
+    <row r="65" spans="2:5" ht="12.75">
+      <c r="B65" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="61"/>
+    </row>
+    <row r="66" spans="2:5" ht="25.5">
+      <c r="B66" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="25.5">
+      <c r="B67" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="25.5">
+      <c r="B68" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="25.5">
+      <c r="B69" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="25.5">
+      <c r="B70" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="72" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="73" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="74" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="75" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="76" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="77" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="78" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="79" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="80" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="35">
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B53:N53"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H22:H24"/>
     <mergeCell ref="B3:H6"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>